--- a/files/Amb自动化/全局环境音效表.xlsx
+++ b/files/Amb自动化/全局环境音效表.xlsx
@@ -519,7 +519,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="str">
-        <v>A02</v>
+        <v>None</v>
       </c>
     </row>
     <row r="8">
@@ -541,8 +541,8 @@
   </sheetData>
   <mergeCells>
     <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A1:A9"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="A1:A9"/>
   </mergeCells>
   <picture r:id="rId1"/>
 </worksheet>
